--- a/SAE_3_01/fichiers genere/S4AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFI.xlsx
@@ -5094,10 +5094,26 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -5114,10 +5130,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -5134,8 +5158,16 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
@@ -5154,9 +5186,21 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -5174,10 +5218,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -5194,10 +5246,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -6885,10 +6945,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -6905,10 +6973,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8676,10 +8752,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -8696,10 +8780,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8716,10 +8808,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 6H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -10467,9 +10567,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -10487,9 +10599,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -10507,10 +10627,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12258,9 +12390,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -12278,9 +12422,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12298,9 +12450,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12318,9 +12478,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -12338,9 +12506,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -12358,10 +12534,22 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -14049,10 +14237,26 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -14069,10 +14273,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -14089,8 +14305,16 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
@@ -15840,10 +16064,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -15860,9 +16096,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -15880,9 +16124,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -15900,10 +16152,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -15920,10 +16180,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -17631,8 +17899,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -17651,9 +17927,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -17671,9 +17955,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -17691,10 +17983,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S4AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFI.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="R4.01 Architecture logicielle" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="R4.02 Qualité de développement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R4.03 Qualité et au-delà du relationnel" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R4.03 Qualité et au-delà du rel" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="R4.04 Méthodes d'optimisation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R4.05 Communicaton professionnelle en anglais" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R4.06 Communication dans les organisations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R4.05 Communicaton professionne" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R4.06 Communication dans les or" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="R4.07 PPP" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="R4.A.08 Virtualisation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R4.A.09 Management avancé des systèmes d'information" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R4.A.09 Management avancé des s" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="R4.A.10 Compléments Web" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R4.A.11 Développement pour applications mobiles" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R4.A.11 Développement pour appl" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="R4.A.12 Automates et langages" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="R4.A.L1 Introduction IA-2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
@@ -3275,21 +3275,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3307,17 +3295,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3335,17 +3315,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3363,17 +3335,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3391,17 +3355,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -3419,22 +3375,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5090,26 +5034,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5126,22 +5054,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5158,16 +5074,8 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -6885,22 +6793,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6917,17 +6813,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6945,17 +6833,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6973,18 +6853,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -7001,18 +6873,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8688,16 +8552,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -8716,17 +8572,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8744,17 +8592,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8772,18 +8612,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -12238,26 +12070,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12274,18 +12090,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12302,16 +12110,8 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -12330,21 +12130,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -12362,18 +12150,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -12390,18 +12170,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -14057,18 +13829,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -14085,18 +13849,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15832,17 +15588,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15860,17 +15608,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -15888,18 +15628,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15916,11 +15648,7 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -17619,18 +17347,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17647,18 +17367,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17675,18 +17387,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 6H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19402,18 +19106,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -19430,18 +19126,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19458,18 +19146,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19486,18 +19166,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19514,18 +19186,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -21201,17 +20865,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21229,17 +20885,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -21257,17 +20905,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -22984,17 +22624,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -23012,17 +22644,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24759,21 +24383,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24791,17 +24403,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24819,22 +24423,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFI.xlsx
@@ -3275,9 +3275,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3295,9 +3307,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3315,9 +3335,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3335,9 +3363,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3355,9 +3391,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -3375,10 +3419,22 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5034,10 +5090,26 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5054,10 +5126,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5074,8 +5158,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -6793,10 +6885,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6813,9 +6917,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6833,9 +6945,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6853,10 +6973,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -6873,10 +7001,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8552,8 +8688,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -8572,9 +8716,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8592,9 +8744,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8612,10 +8772,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -10311,9 +10479,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12070,10 +12246,26 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12090,10 +12282,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12110,8 +12310,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -12130,9 +12338,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -12150,10 +12370,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -12170,10 +12398,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -13829,10 +14065,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -13849,10 +14093,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15588,9 +15840,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15608,9 +15868,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -15628,10 +15896,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15648,7 +15924,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -17347,10 +17627,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17367,10 +17655,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17387,10 +17683,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 6H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19106,10 +19410,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -19126,10 +19438,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19146,10 +19466,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19166,10 +19494,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19186,10 +19522,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -20865,9 +21209,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -20885,9 +21237,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20905,9 +21265,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -22624,9 +22992,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22644,9 +23020,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24383,9 +24767,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24403,9 +24799,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24423,10 +24827,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFI.xlsx
@@ -7,19 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R4.01 Architecture logicielle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R4.02 Qualité de développement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R4.03 Qualité et au-delà du rel" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R4.04 Méthodes d'optimisation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R4.05 Communicaton professionne" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R4.06 Communication dans les or" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R4.07 PPP" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R4.A.08 Virtualisation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R4.A.09 Management avancé des s" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R4.A.10 Compléments Web" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R4.A.11 Développement pour appl" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R4.A.12 Automates et langages" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R4.A.L1 Introduction IA-2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R4.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R4.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R4.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R4.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R4.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R4.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R4.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R4.A.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R4.A.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R4.A.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R4.A.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R4.A.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R4.A.L1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -5131,7 +5131,11 @@
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -5169,7 +5173,11 @@
         </is>
       </c>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6148,7 +6156,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -7010,7 +7018,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -10481,13 +10489,17 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 6H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -10507,9 +10519,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 6H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -10527,9 +10551,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 6H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -11509,7 +11541,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -12287,8 +12319,16 @@
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
           <t>TP 2H</t>
@@ -12320,7 +12360,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -14121,10 +14165,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15842,7 +15894,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
@@ -15870,13 +15922,13 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -15898,16 +15950,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15926,11 +15978,15 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -15948,10 +16004,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -15968,10 +16032,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -18673,7 +18745,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -19440,7 +19512,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -19468,7 +19540,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -19496,7 +19568,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -19524,7 +19596,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -19550,10 +19622,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -19570,10 +19650,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFI.xlsx
@@ -5178,7 +5178,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -6156,7 +6160,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -10563,7 +10567,11 @@
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -11541,7 +11549,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -12366,7 +12374,11 @@
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -16044,7 +16056,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -18745,7 +18761,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -24931,7 +24947,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
